--- a/炮倍解锁/MyData.xlsx
+++ b/炮倍解锁/MyData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fish\fish-config\炮倍\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF221A5-CD38-410F-81F7-FB0C8527E652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1416" windowWidth="20424" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26175" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,57 +14,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>炮倍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下一炮倍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>经验加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需要物品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需要物品数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>奖励物品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>奖励物品数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1001|4017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>1001|1002</t>
   </si>
   <si>
-    <t>800|1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>800|800</t>
   </si>
   <si>
-    <t>1001|4020</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000|1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>1000|1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,32 +68,166 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,12 +236,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -144,9 +450,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -157,6 +705,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -166,21 +717,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -438,221 +1030,437 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="13.44140625" style="5" customWidth="1"/>
+    <col min="1" max="7" width="13.4416666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" ht="16.5" spans="1:7">
+      <c r="A2" s="4">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>5001</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3">
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="4">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>5001</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3">
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="4">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>5001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>1001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3">
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="4">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>5001</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>1001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="4">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="5">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5004</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="4">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4">
+        <v>115</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="4">
+        <v>115</v>
+      </c>
+      <c r="B9" s="4">
+        <v>130</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="4">
+        <v>130</v>
+      </c>
+      <c r="B10" s="4">
+        <v>145</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="4">
+        <v>145</v>
+      </c>
+      <c r="B11" s="4">
+        <v>160</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="4">
+        <v>160</v>
+      </c>
+      <c r="B12" s="4">
+        <v>175</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="4">
+        <v>170</v>
+      </c>
+      <c r="B13" s="4">
+        <v>185</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="4">
+        <v>185</v>
+      </c>
+      <c r="B14" s="4">
+        <v>200</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/炮倍解锁/MyData.xlsx
+++ b/炮倍解锁/MyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26175" windowHeight="12960"/>
+    <workbookView windowWidth="26175" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>炮倍</t>
   </si>
@@ -36,15 +36,6 @@
   <si>
     <t>奖励物品数量</t>
   </si>
-  <si>
-    <t>1001|1002</t>
-  </si>
-  <si>
-    <t>800|800</t>
-  </si>
-  <si>
-    <t>1000|1000</t>
-  </si>
 </sst>
 </file>
 
@@ -52,9 +43,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -81,6 +72,29 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -91,6 +105,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -99,9 +121,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,32 +152,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,7 +174,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,18 +189,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,29 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -242,13 +233,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,19 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,37 +359,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,103 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,17 +442,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,11 +477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,19 +534,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1075,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -1086,19 +1077,19 @@
       <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
+      <c r="F2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>800</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -1109,19 +1100,19 @@
       <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
+      <c r="F3" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1141,10 +1132,10 @@
     </row>
     <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1164,10 +1155,10 @@
     </row>
     <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="4">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1176,21 +1167,21 @@
         <v>5004</v>
       </c>
       <c r="E6" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4">
         <v>1001</v>
       </c>
       <c r="G6" s="4">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="5">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1199,21 +1190,21 @@
         <v>5004</v>
       </c>
       <c r="E7" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5">
         <v>1001</v>
       </c>
       <c r="G7" s="5">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="4">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -1222,21 +1213,21 @@
         <v>5004</v>
       </c>
       <c r="E8" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4">
         <v>1001</v>
       </c>
       <c r="G8" s="4">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="4">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1245,21 +1236,21 @@
         <v>5004</v>
       </c>
       <c r="E9" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4">
         <v>1001</v>
       </c>
       <c r="G9" s="4">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="4">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1268,21 +1259,21 @@
         <v>5004</v>
       </c>
       <c r="E10" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4">
         <v>1001</v>
       </c>
       <c r="G10" s="4">
-        <v>1500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="4">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1291,21 +1282,21 @@
         <v>5004</v>
       </c>
       <c r="E11" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4">
         <v>1001</v>
       </c>
       <c r="G11" s="4">
-        <v>1500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="4">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1314,21 +1305,21 @@
         <v>5004</v>
       </c>
       <c r="E12" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F12" s="4">
         <v>1001</v>
       </c>
       <c r="G12" s="4">
-        <v>1500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="4">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B13" s="4">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1337,127 +1328,681 @@
         <v>5004</v>
       </c>
       <c r="E13" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F13" s="4">
         <v>1001</v>
       </c>
       <c r="G13" s="4">
-        <v>1500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="4">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4">
+        <v>100</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="4">
+        <v>100</v>
+      </c>
+      <c r="B15" s="4">
+        <v>150</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:7">
+      <c r="A16" s="4">
+        <v>150</v>
+      </c>
+      <c r="B16" s="4">
         <v>200</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5004</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="4">
+        <v>200</v>
+      </c>
+      <c r="B17" s="4">
+        <v>250</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E17" s="4">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="4">
+        <v>250</v>
+      </c>
+      <c r="B18" s="4">
+        <v>300</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E18" s="4">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G18" s="4">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="4">
+        <v>300</v>
+      </c>
+      <c r="B19" s="4">
+        <v>350</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E19" s="4">
+        <v>35</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="4">
+        <v>350</v>
+      </c>
+      <c r="B20" s="4">
+        <v>400</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E20" s="4">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="4">
+        <v>400</v>
+      </c>
+      <c r="B21" s="4">
+        <v>450</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="4">
+        <v>450</v>
+      </c>
+      <c r="B22" s="4">
+        <v>500</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E22" s="4">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="4">
+        <v>500</v>
+      </c>
+      <c r="B23" s="4">
+        <v>600</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E23" s="4">
+        <v>60</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="4">
+        <v>600</v>
+      </c>
+      <c r="B24" s="4">
+        <v>700</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E24" s="4">
+        <v>70</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G24" s="4">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="4">
+        <v>700</v>
+      </c>
+      <c r="B25" s="4">
+        <v>800</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E25" s="4">
+        <v>80</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G25" s="4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="4">
+        <v>800</v>
+      </c>
+      <c r="B26" s="4">
+        <v>900</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E26" s="4">
+        <v>90</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G26" s="4">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="4">
+        <v>900</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E27" s="4">
+        <v>100</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G27" s="4">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B28" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E28" s="4">
+        <v>150</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="4">
+        <v>1500</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E29" s="4">
+        <v>200</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G29" s="4">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E30" s="4">
+        <v>250</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="4">
+        <v>2500</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E31" s="4">
+        <v>300</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G31" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:7">
+      <c r="A32" s="4">
+        <v>3000</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3500</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E32" s="4">
+        <v>400</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G32" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
+      <c r="A33" s="4">
+        <v>3500</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E33" s="4">
+        <v>500</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G33" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:7">
+      <c r="A34" s="4">
+        <v>4000</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4500</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E34" s="4">
+        <v>600</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G34" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:7">
+      <c r="A35" s="4">
+        <v>4500</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E35" s="4">
+        <v>800</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G35" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:7">
+      <c r="A36" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G36" s="4">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:7">
+      <c r="A37" s="4">
+        <v>6000</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G37" s="4">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:7">
+      <c r="A38" s="4">
+        <v>7000</v>
+      </c>
+      <c r="B38" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G38" s="4">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:7">
+      <c r="A39" s="4">
+        <v>8000</v>
+      </c>
+      <c r="B39" s="4">
+        <v>9000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G39" s="4">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="4">
+        <v>9000</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G40" s="4">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B41" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G41" s="4">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="4">
+        <v>20000</v>
+      </c>
+      <c r="B42" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5004</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G42" s="4">
+        <v>400000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
